--- a/US002 - Quality Assurance Checklist v1.0.xlsx
+++ b/US002 - Quality Assurance Checklist v1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hnguyen399\Ass\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hnguyen399\Ass\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313E0A78-65E7-496F-B7B7-FB8FD7EBF8D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9CA209-2129-4AD8-8E75-92BCC209E097}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="171">
   <si>
     <t>Amendment Record</t>
   </si>
@@ -445,12 +445,6 @@
   </si>
   <si>
     <t>HomeController.java</t>
-  </si>
-  <si>
-    <t>hnguyen404</t>
-  </si>
-  <si>
-    <t>hnguyen405</t>
   </si>
   <si>
     <t>SystemConstant.java</t>
@@ -1482,7 +1476,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C4:G19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1507,7 +1501,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="3:7" ht="13" x14ac:dyDescent="0.3">
@@ -1531,7 +1525,7 @@
         <v>48</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="3:7" ht="13" x14ac:dyDescent="0.3">
@@ -1987,7 +1981,7 @@
         <v>82</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>54</v>
@@ -2001,7 +1995,7 @@
         <v>83</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>54</v>
@@ -2015,7 +2009,7 @@
         <v>84</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>54</v>
@@ -2026,10 +2020,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>54</v>
@@ -2046,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2129,7 +2123,7 @@
         <v>44406</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I3" s="34"/>
     </row>
@@ -2156,7 +2150,7 @@
         <v>44406</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I4" s="34"/>
     </row>
@@ -2168,7 +2162,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>19</v>
@@ -2183,7 +2177,7 @@
         <v>44407</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I5" s="34"/>
     </row>
@@ -2195,7 +2189,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>19</v>
@@ -2210,7 +2204,7 @@
         <v>44409</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I6" s="34"/>
     </row>
@@ -2222,7 +2216,7 @@
         <v>46</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>19</v>
@@ -2237,7 +2231,7 @@
         <v>44406</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I7" s="34"/>
     </row>
@@ -2249,7 +2243,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>19</v>
@@ -2264,7 +2258,7 @@
         <v>44406</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I8" s="34"/>
     </row>
@@ -2276,7 +2270,7 @@
         <v>46</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>19</v>
@@ -2291,7 +2285,7 @@
         <v>44406</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I9" s="34"/>
     </row>
@@ -2303,7 +2297,7 @@
         <v>46</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>19</v>
@@ -2318,7 +2312,7 @@
         <v>44406</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I10" s="34"/>
     </row>
@@ -2330,7 +2324,7 @@
         <v>46</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>19</v>
@@ -2345,7 +2339,7 @@
         <v>44406</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I11" s="34"/>
     </row>
@@ -2357,7 +2351,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>19</v>
@@ -2372,7 +2366,7 @@
         <v>44406</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I12" s="34"/>
     </row>
@@ -2384,7 +2378,7 @@
         <v>46</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>19</v>
@@ -2399,7 +2393,7 @@
         <v>44406</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I13" s="34"/>
     </row>
@@ -2411,7 +2405,7 @@
         <v>46</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D14" s="33" t="s">
         <v>19</v>
@@ -2426,7 +2420,7 @@
         <v>44406</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I14" s="34"/>
     </row>
@@ -2438,7 +2432,7 @@
         <v>46</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>19</v>
@@ -2453,7 +2447,7 @@
         <v>44406</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I15" s="34"/>
     </row>
@@ -2465,7 +2459,7 @@
         <v>46</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>19</v>
@@ -2480,7 +2474,7 @@
         <v>44404</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I16" s="34"/>
     </row>
@@ -2492,7 +2486,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>19</v>
@@ -2507,7 +2501,7 @@
         <v>44404</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I17" s="34"/>
     </row>
@@ -2519,7 +2513,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D18" s="33" t="s">
         <v>19</v>
@@ -2534,7 +2528,7 @@
         <v>44404</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I18" s="34"/>
     </row>
@@ -2546,7 +2540,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D19" s="33" t="s">
         <v>19</v>
@@ -2561,7 +2555,7 @@
         <v>44405</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I19" s="34"/>
     </row>
@@ -2573,7 +2567,7 @@
         <v>46</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D20" s="33" t="s">
         <v>19</v>
@@ -2588,7 +2582,7 @@
         <v>44405</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I20" s="34"/>
     </row>
@@ -2600,7 +2594,7 @@
         <v>46</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D21" s="33" t="s">
         <v>19</v>
@@ -2615,7 +2609,7 @@
         <v>44404</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I21" s="34"/>
     </row>
@@ -2627,7 +2621,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D22" s="33" t="s">
         <v>19</v>
@@ -2642,7 +2636,7 @@
         <v>44411</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I22" s="34"/>
     </row>
@@ -2654,7 +2648,7 @@
         <v>46</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>19</v>
@@ -2669,7 +2663,7 @@
         <v>44412</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I23" s="34"/>
     </row>
@@ -2681,7 +2675,7 @@
         <v>46</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>23</v>
@@ -2696,7 +2690,7 @@
         <v>44404</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I24" s="34"/>
     </row>
@@ -2708,7 +2702,7 @@
         <v>46</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>37</v>
@@ -2723,7 +2717,7 @@
         <v>44406</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I25" s="34"/>
     </row>
@@ -2735,7 +2729,7 @@
         <v>46</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D26" s="33" t="s">
         <v>36</v>
@@ -2750,7 +2744,7 @@
         <v>44406</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I26" s="34"/>
     </row>
@@ -2762,7 +2756,7 @@
         <v>46</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D27" s="33" t="s">
         <v>36</v>
@@ -2777,7 +2771,7 @@
         <v>44407</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I27" s="34"/>
     </row>
@@ -2789,7 +2783,7 @@
         <v>46</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>36</v>
@@ -2804,7 +2798,7 @@
         <v>44410</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I28" s="34"/>
     </row>
@@ -2816,7 +2810,7 @@
         <v>46</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D29" s="33" t="s">
         <v>36</v>
@@ -2831,7 +2825,7 @@
         <v>44406</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I29" s="34"/>
     </row>
@@ -2843,7 +2837,7 @@
         <v>46</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D30" s="33" t="s">
         <v>36</v>
@@ -2858,7 +2852,7 @@
         <v>44406</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I30" s="34"/>
     </row>
@@ -2870,7 +2864,7 @@
         <v>46</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D31" s="33" t="s">
         <v>36</v>
@@ -2885,7 +2879,7 @@
         <v>44406</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I31" s="34"/>
     </row>
@@ -2897,7 +2891,7 @@
         <v>46</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D32" s="33" t="s">
         <v>38</v>
@@ -2912,7 +2906,7 @@
         <v>44406</v>
       </c>
       <c r="H32" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I32" s="34"/>
     </row>
@@ -2924,7 +2918,7 @@
         <v>46</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>38</v>
@@ -2939,7 +2933,7 @@
         <v>44405</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I33" s="34"/>
     </row>
@@ -2951,7 +2945,7 @@
         <v>46</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D34" s="33" t="s">
         <v>38</v>
@@ -2966,7 +2960,7 @@
         <v>44404</v>
       </c>
       <c r="H34" s="47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I34" s="34"/>
     </row>
@@ -2978,7 +2972,7 @@
         <v>46</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D35" s="33" t="s">
         <v>36</v>
@@ -2987,13 +2981,13 @@
         <v>30</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G35" s="28">
         <v>44404</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I35" s="34"/>
     </row>
@@ -3005,7 +2999,7 @@
         <v>46</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D36" s="33" t="s">
         <v>38</v>
@@ -3014,13 +3008,13 @@
         <v>30</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G36" s="28">
         <v>44404</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I36" s="34"/>
     </row>
